--- a/Lab_3/Segway_files/Inputs/trial9.xlsx
+++ b/Lab_3/Segway_files/Inputs/trial9.xlsx
@@ -2,21 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e43cb24f254ddb08/Escritorio/Lab3_Paperbot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e43cb24f254ddb08/Escritorio/Lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_96766634F6D2CEC04BD9D1B2875585486D2F3198" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C705E5CA-41A7-4C31-ADCF-1CB5F91B73DF}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{AC2CD682-6B7A-4B4D-A51A-8F664416945D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6BAA50A0-1344-4005-91A3-EE70C628BFCF}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{71CD353F-6232-4BB6-96F3-3DC00E17B1B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="9" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>time</t>
   </si>
@@ -68,6 +71,9 @@
   <si>
     <t>gyro</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -75,24 +81,29 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,16 +127,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -145,56 +158,150 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -337,23 +444,25 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C30203-FFE6-4B51-B1E2-9551DEB422C7}">
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -366,7 +475,9 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
@@ -392,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -403,38 +514,38 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>-0.18339</v>
+        <v>-2.9264399999999999</v>
       </c>
       <c r="E2" s="3">
-        <v>-0.29977999999999999</v>
+        <v>-2.9999500000000001</v>
       </c>
       <c r="F2" s="3">
-        <v>-2.5999999999999999E-3</v>
+        <v>7.3800000000000005E-4</v>
       </c>
       <c r="G2" s="3">
-        <v>1.802E-3</v>
+        <v>2.3050000000000002E-3</v>
       </c>
       <c r="H2" s="3">
-        <v>266.96190000000001</v>
+        <v>3051.8710000000001</v>
       </c>
       <c r="I2" s="3">
-        <v>288.31760000000003</v>
+        <v>3033.32</v>
       </c>
       <c r="J2" s="3">
-        <v>-2.6099999999999999E-3</v>
+        <v>7.2199999999999999E-4</v>
       </c>
       <c r="K2" s="3">
-        <v>-0.97018000000000004</v>
+        <v>-0.89595000000000002</v>
       </c>
       <c r="L2" s="3">
-        <v>1.7949999999999999E-3</v>
+        <v>2.3110000000000001E-3</v>
       </c>
       <c r="M2">
         <f>-E2</f>
-        <v>0.29977999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2.9999500000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>0.5</v>
       </c>
@@ -445,38 +556,38 @@
         <v>1.125</v>
       </c>
       <c r="D3" s="3">
-        <v>-0.16528999999999999</v>
+        <v>-2.7722899999999999</v>
       </c>
       <c r="E3" s="3">
-        <v>-0.29931000000000002</v>
+        <v>-2.9965999999999999</v>
       </c>
       <c r="F3" s="3">
-        <v>-5.0709999999999998E-2</v>
+        <v>-6.0859999999999997E-2</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.10338</v>
+        <v>-0.17724000000000001</v>
       </c>
       <c r="H3" s="3">
-        <v>273.60969999999998</v>
+        <v>3328.9270000000001</v>
       </c>
       <c r="I3" s="3">
-        <v>300.25009999999997</v>
+        <v>2888.93</v>
       </c>
       <c r="J3" s="3">
-        <v>-5.2929999999999998E-2</v>
+        <v>-6.1719999999999997E-2</v>
       </c>
       <c r="K3" s="3">
-        <v>-0.96367000000000003</v>
+        <v>-0.93115000000000003</v>
       </c>
       <c r="L3" s="3">
-        <v>-9.9400000000000002E-2</v>
+        <v>-0.18362999999999999</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M42" si="0">-E3</f>
-        <v>0.29931000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2.9965999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -487,38 +598,38 @@
         <v>2.25</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.13264000000000001</v>
+        <v>-2.54738</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.29582999999999998</v>
+        <v>-2.9760499999999999</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.15332000000000001</v>
+        <v>-0.10867</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.20799999999999999</v>
+        <v>-4.9439999999999998E-2</v>
       </c>
       <c r="H4" s="3">
-        <v>253.43389999999999</v>
+        <v>2916.855</v>
       </c>
       <c r="I4" s="3">
-        <v>301.52659999999997</v>
+        <v>2950.924</v>
       </c>
       <c r="J4" s="3">
-        <v>-0.14945</v>
+        <v>-9.7009999999999999E-2</v>
       </c>
       <c r="K4" s="3">
-        <v>-0.90491999999999995</v>
+        <v>-1.0594300000000001</v>
       </c>
       <c r="L4" s="3">
-        <v>-0.21518999999999999</v>
+        <v>-4.6769999999999999E-2</v>
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>0.29582999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2.9760499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>1.5</v>
       </c>
@@ -529,38 +640,38 @@
         <v>3.375</v>
       </c>
       <c r="D5" s="3">
-        <v>-8.4909999999999999E-2</v>
+        <v>-2.2044299999999999</v>
       </c>
       <c r="E5" s="3">
-        <v>-0.28439999999999999</v>
+        <v>-2.9355500000000001</v>
       </c>
       <c r="F5" s="3">
-        <v>-0.31143999999999999</v>
+        <v>-0.12456</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.32003999999999999</v>
+        <v>-2.6030000000000001E-2</v>
       </c>
       <c r="H5" s="3">
-        <v>226.23990000000001</v>
+        <v>2982.489</v>
       </c>
       <c r="I5" s="3">
-        <v>345.48849999999999</v>
+        <v>3294.098</v>
       </c>
       <c r="J5" s="3">
-        <v>-0.27805000000000002</v>
+        <v>-0.1115</v>
       </c>
       <c r="K5" s="3">
-        <v>-0.97751999999999994</v>
+        <v>-0.94972000000000001</v>
       </c>
       <c r="L5" s="3">
-        <v>-0.28267999999999999</v>
+        <v>-2.5319999999999999E-2</v>
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>0.28439999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2.9355500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -571,38 +682,38 @@
         <v>3.375</v>
       </c>
       <c r="D6" s="3">
-        <v>-3.9550000000000002E-2</v>
+        <v>-1.7729900000000001</v>
       </c>
       <c r="E6" s="3">
-        <v>-0.26557999999999998</v>
+        <v>-2.8723100000000001</v>
       </c>
       <c r="F6" s="3">
-        <v>-0.46899999999999997</v>
+        <v>-0.19001000000000001</v>
       </c>
       <c r="G6" s="3">
-        <v>-0.31930999999999998</v>
+        <v>-0.26368999999999998</v>
       </c>
       <c r="H6" s="3">
-        <v>261.27170000000001</v>
+        <v>2923.5819999999999</v>
       </c>
       <c r="I6" s="3">
-        <v>309.04219999999998</v>
+        <v>2843.2350000000001</v>
       </c>
       <c r="J6" s="3">
-        <v>-0.40401999999999999</v>
+        <v>-0.18951000000000001</v>
       </c>
       <c r="K6" s="3">
-        <v>-0.89232999999999996</v>
+        <v>-0.88946000000000003</v>
       </c>
       <c r="L6" s="3">
-        <v>-0.33257999999999999</v>
+        <v>-0.22711999999999999</v>
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>0.26557999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2.8723100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>2.5</v>
       </c>
@@ -613,38 +724,38 @@
         <v>3.375</v>
       </c>
       <c r="D7" s="3">
-        <v>2.3240000000000001E-3</v>
+        <v>-1.3169299999999999</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.23988000000000001</v>
+        <v>-2.74553</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.62458999999999998</v>
+        <v>-0.37291000000000002</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.31261</v>
+        <v>-0.44900000000000001</v>
       </c>
       <c r="H7" s="3">
-        <v>230.60400000000001</v>
+        <v>2601.0059999999999</v>
       </c>
       <c r="I7" s="3">
-        <v>295.87869999999998</v>
+        <v>2937.848</v>
       </c>
       <c r="J7" s="3">
-        <v>-0.59128999999999998</v>
+        <v>-0.36682999999999999</v>
       </c>
       <c r="K7" s="3">
-        <v>-0.87572000000000005</v>
+        <v>-0.99763000000000002</v>
       </c>
       <c r="L7" s="3">
-        <v>-0.32057000000000002</v>
+        <v>-0.42612</v>
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>0.23988000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2.74553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -655,38 +766,38 @@
         <v>3.375</v>
       </c>
       <c r="D8" s="3">
-        <v>3.9727999999999999E-2</v>
+        <v>-0.88219999999999998</v>
       </c>
       <c r="E8" s="3">
-        <v>-0.20802999999999999</v>
+        <v>-2.51369</v>
       </c>
       <c r="F8" s="3">
-        <v>-0.77986</v>
+        <v>-0.62163000000000002</v>
       </c>
       <c r="G8" s="3">
-        <v>-0.2298</v>
+        <v>-0.53349999999999997</v>
       </c>
       <c r="H8" s="3">
-        <v>254.35919999999999</v>
+        <v>2634.0219999999999</v>
       </c>
       <c r="I8" s="3">
-        <v>312.63319999999999</v>
+        <v>2800.0610000000001</v>
       </c>
       <c r="J8" s="3">
-        <v>-0.71479000000000004</v>
+        <v>-0.61409000000000002</v>
       </c>
       <c r="K8" s="3">
-        <v>-0.74450000000000005</v>
+        <v>-0.79334000000000005</v>
       </c>
       <c r="L8" s="3">
-        <v>-0.23679</v>
+        <v>-0.53149999999999997</v>
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>0.20802999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2.51369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>3.5</v>
       </c>
@@ -697,38 +808,38 @@
         <v>3.375</v>
       </c>
       <c r="D9" s="3">
-        <v>7.1748999999999993E-2</v>
+        <v>-0.51917999999999997</v>
       </c>
       <c r="E9" s="3">
-        <v>-0.17077999999999999</v>
+        <v>-2.1741199999999998</v>
       </c>
       <c r="F9" s="3">
-        <v>-0.93415000000000004</v>
+        <v>-0.88861000000000001</v>
       </c>
       <c r="G9" s="3">
-        <v>-0.31095</v>
+        <v>-0.53725999999999996</v>
       </c>
       <c r="H9" s="3">
-        <v>286.71510000000001</v>
+        <v>3296.9549999999999</v>
       </c>
       <c r="I9" s="3">
-        <v>271.77080000000001</v>
+        <v>2415.9369999999999</v>
       </c>
       <c r="J9" s="3">
-        <v>-0.80408999999999997</v>
+        <v>-0.79035</v>
       </c>
       <c r="K9" s="3">
-        <v>-0.58457999999999999</v>
+        <v>-0.61519000000000001</v>
       </c>
       <c r="L9" s="3">
-        <v>-0.30943999999999999</v>
+        <v>-0.54639000000000004</v>
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>0.17077999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2.1741199999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -739,38 +850,38 @@
         <v>3.375</v>
       </c>
       <c r="D10" s="3">
-        <v>9.7669000000000006E-2</v>
+        <v>-0.25885999999999998</v>
       </c>
       <c r="E10" s="3">
-        <v>-0.12906000000000001</v>
+        <v>-1.75206</v>
       </c>
       <c r="F10" s="3">
-        <v>-1.08653</v>
+        <v>-1.15435</v>
       </c>
       <c r="G10" s="3">
-        <v>-0.30945</v>
+        <v>-0.52561999999999998</v>
       </c>
       <c r="H10" s="3">
-        <v>270.7534</v>
+        <v>2888.1990000000001</v>
       </c>
       <c r="I10" s="3">
-        <v>252.67939999999999</v>
+        <v>1726.567</v>
       </c>
       <c r="J10" s="3">
-        <v>-0.90095999999999998</v>
+        <v>-0.87849999999999995</v>
       </c>
       <c r="K10" s="3">
-        <v>-0.48381000000000002</v>
+        <v>-0.39761000000000002</v>
       </c>
       <c r="L10" s="3">
-        <v>-0.29327999999999999</v>
+        <v>-0.54510000000000003</v>
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>0.12906000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>1.75206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
         <v>4.5</v>
       </c>
@@ -781,38 +892,38 @@
         <v>3.375</v>
       </c>
       <c r="D11" s="3">
-        <v>0.116963</v>
+        <v>-0.11824999999999999</v>
       </c>
       <c r="E11" s="3">
-        <v>-8.3930000000000005E-2</v>
+        <v>-1.27895</v>
       </c>
       <c r="F11" s="3">
-        <v>-1.23787</v>
+        <v>-1.4172800000000001</v>
       </c>
       <c r="G11" s="3">
-        <v>-0.31222</v>
+        <v>-0.53081</v>
       </c>
       <c r="H11" s="3">
-        <v>231.70500000000001</v>
+        <v>2617.41</v>
       </c>
       <c r="I11" s="3">
-        <v>243.9982</v>
+        <v>1890.1959999999999</v>
       </c>
       <c r="J11" s="3">
-        <v>-0.98977999999999999</v>
+        <v>-0.94764000000000004</v>
       </c>
       <c r="K11" s="3">
-        <v>-0.33701999999999999</v>
+        <v>-0.14801</v>
       </c>
       <c r="L11" s="3">
-        <v>-0.29285</v>
+        <v>-0.54395000000000004</v>
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>8.3930000000000005E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>1.27895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -823,38 +934,38 @@
         <v>3.375</v>
       </c>
       <c r="D12" s="3">
-        <v>0.12923299999999999</v>
+        <v>-0.10757</v>
       </c>
       <c r="E12" s="3">
-        <v>-3.6429999999999997E-2</v>
+        <v>-0.78917000000000004</v>
       </c>
       <c r="F12" s="3">
-        <v>-1.38876</v>
+        <v>4.5973750000000004</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.31363999999999997</v>
+        <v>-0.53771000000000002</v>
       </c>
       <c r="H12" s="3">
-        <v>233.49299999999999</v>
+        <v>2072.3029999999999</v>
       </c>
       <c r="I12" s="3">
-        <v>231.0994</v>
+        <v>1924.797</v>
       </c>
       <c r="J12" s="3">
-        <v>-0.95293000000000005</v>
+        <v>-0.98924000000000001</v>
       </c>
       <c r="K12" s="3">
-        <v>-0.18190000000000001</v>
+        <v>0.10872</v>
       </c>
       <c r="L12" s="3">
-        <v>-0.32045000000000001</v>
+        <v>-0.54152</v>
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>3.6429999999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.78917000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2">
         <v>5.5</v>
       </c>
@@ -865,38 +976,38 @@
         <v>2.25</v>
       </c>
       <c r="D13" s="3">
-        <v>0.13343099999999999</v>
+        <v>-0.19694999999999999</v>
       </c>
       <c r="E13" s="3">
-        <v>-3.8700000000000002E-3</v>
+        <v>-0.40178999999999998</v>
       </c>
       <c r="F13" s="3">
-        <v>-1.4905299999999999</v>
+        <v>4.3683389999999997</v>
       </c>
       <c r="G13" s="3">
-        <v>-0.20713000000000001</v>
+        <v>-0.35170000000000001</v>
       </c>
       <c r="H13" s="3">
-        <v>193.90270000000001</v>
+        <v>2238.9609999999998</v>
       </c>
       <c r="I13" s="3">
-        <v>228.94110000000001</v>
+        <v>1861.626</v>
       </c>
       <c r="J13" s="3">
-        <v>-1.01593</v>
+        <v>-0.88444999999999996</v>
       </c>
       <c r="K13" s="3">
-        <v>-7.9430000000000001E-2</v>
+        <v>0.32567299999999999</v>
       </c>
       <c r="L13" s="3">
-        <v>-0.21523</v>
+        <v>-0.36828</v>
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>3.8700000000000002E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.40178999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -907,38 +1018,38 @@
         <v>1.125</v>
       </c>
       <c r="D14" s="3">
-        <v>0.13426299999999999</v>
+        <v>-0.29060999999999998</v>
       </c>
       <c r="E14" s="3">
-        <v>1.2548E-2</v>
+        <v>-0.18207000000000001</v>
       </c>
       <c r="F14" s="3">
-        <v>-1.5417799999999999</v>
+        <v>4.2469460000000003</v>
       </c>
       <c r="G14" s="3">
-        <v>-0.10367</v>
+        <v>-0.17366000000000001</v>
       </c>
       <c r="H14" s="3">
-        <v>188.34899999999999</v>
+        <v>2079.3319999999999</v>
       </c>
       <c r="I14" s="3">
-        <v>237.68430000000001</v>
+        <v>2012.7570000000001</v>
       </c>
       <c r="J14" s="3">
-        <v>-0.93805000000000005</v>
+        <v>-0.89276999999999995</v>
       </c>
       <c r="K14" s="3">
-        <v>-2.87E-2</v>
+        <v>0.45250400000000002</v>
       </c>
       <c r="L14" s="3">
-        <v>-9.7320000000000004E-2</v>
+        <v>-0.17809</v>
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>-1.2548E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.18207000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2">
         <v>6.5</v>
       </c>
@@ -949,38 +1060,38 @@
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>0.13426299999999999</v>
+        <v>-0.32912999999999998</v>
       </c>
       <c r="E15" s="3">
-        <v>1.2576E-2</v>
+        <v>-0.10927000000000001</v>
       </c>
       <c r="F15" s="3">
-        <v>-1.54182</v>
-      </c>
-      <c r="G15" s="4">
-        <v>-4.3000000000000001E-10</v>
+        <v>4.1961449999999996</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-4.3290000000000002E-2</v>
       </c>
       <c r="H15" s="3">
-        <v>195.74350000000001</v>
+        <v>2354.828</v>
       </c>
       <c r="I15" s="3">
-        <v>255.34399999999999</v>
+        <v>2062.123</v>
       </c>
       <c r="J15" s="3">
-        <v>-1.0709</v>
+        <v>-0.89129000000000003</v>
       </c>
       <c r="K15" s="3">
-        <v>-2.7130000000000001E-2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>-4.6000000000000001E-10</v>
+        <v>0.484736</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-4.181E-2</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>-1.2576E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.10927000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -991,38 +1102,38 @@
         <v>0.75</v>
       </c>
       <c r="D16" s="3">
-        <v>0.133823</v>
+        <v>-0.36346000000000001</v>
       </c>
       <c r="E16" s="3">
-        <v>2.6672999999999999E-2</v>
+        <v>-4.9599999999999998E-2</v>
       </c>
       <c r="F16" s="3">
-        <v>4.639246</v>
+        <v>4.1788340000000002</v>
       </c>
       <c r="G16" s="3">
-        <v>-0.20721000000000001</v>
+        <v>-0.10668999999999999</v>
       </c>
       <c r="H16" s="3">
-        <v>186.65790000000001</v>
+        <v>2421.5590000000002</v>
       </c>
       <c r="I16" s="3">
-        <v>229.2287</v>
+        <v>2141.0219999999999</v>
       </c>
       <c r="J16" s="3">
-        <v>-1.0144200000000001</v>
+        <v>-0.82230999999999999</v>
       </c>
       <c r="K16" s="3">
-        <v>7.3785000000000003E-2</v>
+        <v>0.49025099999999999</v>
       </c>
       <c r="L16" s="3">
-        <v>-0.22520000000000001</v>
+        <v>-0.10592</v>
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>-2.6672999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2">
         <v>7.5</v>
       </c>
@@ -1033,38 +1144,38 @@
         <v>1.5</v>
       </c>
       <c r="D17" s="3">
-        <v>0.128636</v>
+        <v>-0.44974999999999998</v>
       </c>
       <c r="E17" s="3">
-        <v>5.4434999999999997E-2</v>
+        <v>9.0676000000000007E-2</v>
       </c>
       <c r="F17" s="3">
-        <v>4.4342670000000002</v>
+        <v>4.1447649999999996</v>
       </c>
       <c r="G17" s="3">
-        <v>-0.41472999999999999</v>
+        <v>-0.11087</v>
       </c>
       <c r="H17" s="3">
-        <v>174.1858</v>
+        <v>2197.46</v>
       </c>
       <c r="I17" s="3">
-        <v>244.9931</v>
+        <v>2023.385</v>
       </c>
       <c r="J17" s="3">
-        <v>-0.999</v>
+        <v>-0.89815999999999996</v>
       </c>
       <c r="K17" s="3">
-        <v>0.27133800000000002</v>
+        <v>0.56025800000000003</v>
       </c>
       <c r="L17" s="3">
-        <v>-0.40772000000000003</v>
+        <v>-0.1152</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>-5.4434999999999997E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>-9.0676000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
         <v>8</v>
       </c>
@@ -1075,38 +1186,38 @@
         <v>2.25</v>
       </c>
       <c r="D18" s="3">
-        <v>0.110639</v>
+        <v>-0.59558</v>
       </c>
       <c r="E18" s="3">
-        <v>9.2577000000000007E-2</v>
+        <v>0.30871900000000002</v>
       </c>
       <c r="F18" s="3">
-        <v>4.1245779999999996</v>
+        <v>4.1022309999999997</v>
       </c>
       <c r="G18" s="3">
-        <v>-0.62649999999999995</v>
+        <v>-0.13986000000000001</v>
       </c>
       <c r="H18" s="3">
-        <v>184.3887</v>
+        <v>2041.8489999999999</v>
       </c>
       <c r="I18" s="3">
-        <v>304.81610000000001</v>
+        <v>2132.0949999999998</v>
       </c>
       <c r="J18" s="3">
-        <v>-0.82757000000000003</v>
+        <v>-0.79647000000000001</v>
       </c>
       <c r="K18" s="3">
-        <v>0.57167500000000004</v>
+        <v>0.5746</v>
       </c>
       <c r="L18" s="3">
-        <v>-0.61846000000000001</v>
+        <v>-0.12670000000000001</v>
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>-9.2577000000000007E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.30871900000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2">
         <v>8.5</v>
       </c>
@@ -1117,38 +1228,38 @@
         <v>2.25</v>
       </c>
       <c r="D19" s="3">
-        <v>8.1840999999999997E-2</v>
+        <v>-0.79866999999999999</v>
       </c>
       <c r="E19" s="3">
-        <v>0.123472</v>
+        <v>0.56255500000000003</v>
       </c>
       <c r="F19" s="3">
-        <v>3.8148469999999999</v>
+        <v>3.9475129999999998</v>
       </c>
       <c r="G19" s="3">
-        <v>-0.62499000000000005</v>
+        <v>-0.46228000000000002</v>
       </c>
       <c r="H19" s="3">
-        <v>240.41220000000001</v>
+        <v>2345.62</v>
       </c>
       <c r="I19" s="3">
-        <v>319.26769999999999</v>
+        <v>2397.9029999999998</v>
       </c>
       <c r="J19" s="3">
-        <v>-0.61484000000000005</v>
+        <v>-0.74543999999999999</v>
       </c>
       <c r="K19" s="3">
-        <v>0.796315</v>
+        <v>0.74745200000000001</v>
       </c>
       <c r="L19" s="3">
-        <v>-0.66600000000000004</v>
+        <v>-0.47299000000000002</v>
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>-0.123472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.56255500000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -1159,38 +1270,38 @@
         <v>2.25</v>
       </c>
       <c r="D20" s="3">
-        <v>4.5011000000000002E-2</v>
+        <v>-1.0797000000000001</v>
       </c>
       <c r="E20" s="3">
-        <v>0.14408599999999999</v>
+        <v>0.78722800000000004</v>
       </c>
       <c r="F20" s="3">
-        <v>3.5070260000000002</v>
+        <v>3.6634060000000002</v>
       </c>
       <c r="G20" s="3">
-        <v>-0.61995</v>
+        <v>-0.64437</v>
       </c>
       <c r="H20" s="3">
-        <v>230.24870000000001</v>
+        <v>1721.422</v>
       </c>
       <c r="I20" s="3">
-        <v>277.35219999999998</v>
+        <v>2504.1129999999998</v>
       </c>
       <c r="J20" s="3">
-        <v>-0.37426999999999999</v>
+        <v>-0.47553000000000001</v>
       </c>
       <c r="K20" s="3">
-        <v>1.0301769999999999</v>
+        <v>0.88093600000000005</v>
       </c>
       <c r="L20" s="3">
-        <v>-0.63739000000000001</v>
+        <v>-0.66156999999999999</v>
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>-0.14408599999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.78722800000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2">
         <v>9.5</v>
       </c>
@@ -1201,38 +1312,38 @@
         <v>2.25</v>
       </c>
       <c r="D21" s="3">
-        <v>3.7320000000000001E-3</v>
+        <v>-1.43753</v>
       </c>
       <c r="E21" s="3">
-        <v>0.152555</v>
+        <v>0.91788099999999995</v>
       </c>
       <c r="F21" s="3">
-        <v>3.200761</v>
+        <v>3.2982010000000002</v>
       </c>
       <c r="G21" s="3">
-        <v>-0.62468000000000001</v>
+        <v>-0.83126999999999995</v>
       </c>
       <c r="H21" s="3">
-        <v>186.774</v>
+        <v>1373.4590000000001</v>
       </c>
       <c r="I21" s="3">
-        <v>248.70490000000001</v>
+        <v>2575.5100000000002</v>
       </c>
       <c r="J21" s="3">
-        <v>-5.7349999999999998E-2</v>
+        <v>-0.14837</v>
       </c>
       <c r="K21" s="3">
-        <v>1.110579</v>
+        <v>0.95354399999999995</v>
       </c>
       <c r="L21" s="3">
-        <v>-0.60807</v>
+        <v>-0.82798000000000005</v>
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>-0.152555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.91788099999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
         <v>10</v>
       </c>
@@ -1243,38 +1354,38 @@
         <v>2.25</v>
       </c>
       <c r="D22" s="3">
-        <v>-3.8170000000000003E-2</v>
+        <v>-1.8472299999999999</v>
       </c>
       <c r="E22" s="3">
-        <v>0.14813100000000001</v>
+        <v>0.88872300000000004</v>
       </c>
       <c r="F22" s="3">
-        <v>2.8964259999999999</v>
+        <v>2.81453</v>
       </c>
       <c r="G22" s="3">
-        <v>-0.62199000000000004</v>
+        <v>-1.0655300000000001</v>
       </c>
       <c r="H22" s="3">
-        <v>188.4735</v>
+        <v>1307.7270000000001</v>
       </c>
       <c r="I22" s="3">
-        <v>244.5581</v>
+        <v>2418.1329999999998</v>
       </c>
       <c r="J22" s="3">
-        <v>0.23271600000000001</v>
+        <v>0.30593599999999999</v>
       </c>
       <c r="K22" s="3">
-        <v>0.94970900000000003</v>
+        <v>0.94757199999999997</v>
       </c>
       <c r="L22" s="3">
-        <v>-0.52576000000000001</v>
+        <v>-1.0071300000000001</v>
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>-0.14813100000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.88872300000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2">
         <v>10.5</v>
       </c>
@@ -1285,38 +1396,38 @@
         <v>2.25</v>
       </c>
       <c r="D23" s="3">
-        <v>-7.6960000000000001E-2</v>
+        <v>-2.20018</v>
       </c>
       <c r="E23" s="3">
-        <v>0.13139000000000001</v>
+        <v>0.65516300000000005</v>
       </c>
       <c r="F23" s="3">
-        <v>2.5869019999999998</v>
+        <v>2.2850459999999999</v>
       </c>
       <c r="G23" s="3">
-        <v>-0.57394000000000001</v>
+        <v>-1.0586599999999999</v>
       </c>
       <c r="H23" s="3">
-        <v>213.1696</v>
+        <v>1617.9090000000001</v>
       </c>
       <c r="I23" s="3">
-        <v>286.85550000000001</v>
+        <v>3704.172</v>
       </c>
       <c r="J23" s="3">
-        <v>0.51896900000000001</v>
+        <v>0.74125300000000005</v>
       </c>
       <c r="K23" s="3">
-        <v>0.846966</v>
+        <v>0.65207899999999996</v>
       </c>
       <c r="L23" s="3">
-        <v>-0.56071000000000004</v>
+        <v>-1.0491699999999999</v>
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>-0.13139000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.65516300000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
         <v>11</v>
       </c>
@@ -1327,38 +1438,38 @@
         <v>2.25</v>
       </c>
       <c r="D24" s="3">
-        <v>-0.10878</v>
+        <v>-2.3860700000000001</v>
       </c>
       <c r="E24" s="3">
-        <v>0.103619</v>
+        <v>0.27546999999999999</v>
       </c>
       <c r="F24" s="3">
-        <v>2.2768959999999998</v>
+        <v>1.756041</v>
       </c>
       <c r="G24" s="3">
-        <v>-0.62385000000000002</v>
+        <v>-1.07738</v>
       </c>
       <c r="H24" s="3">
-        <v>226.60659999999999</v>
+        <v>2404.38</v>
       </c>
       <c r="I24" s="3">
-        <v>309.30259999999998</v>
+        <v>2818.2370000000001</v>
       </c>
       <c r="J24" s="3">
-        <v>0.78515699999999999</v>
+        <v>0.978626</v>
       </c>
       <c r="K24" s="3">
-        <v>0.70842499999999997</v>
+        <v>0.187972</v>
       </c>
       <c r="L24" s="3">
-        <v>-0.57830999999999999</v>
+        <v>-1.0842700000000001</v>
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>-0.103619</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.27546999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2">
         <v>11.5</v>
       </c>
@@ -1369,38 +1480,38 @@
         <v>2.25</v>
       </c>
       <c r="D25" s="3">
-        <v>-0.13059999999999999</v>
+        <v>-2.3520400000000001</v>
       </c>
       <c r="E25" s="3">
-        <v>6.7471000000000003E-2</v>
+        <v>-0.14449000000000001</v>
       </c>
       <c r="F25" s="3">
-        <v>1.9686790000000001</v>
+        <v>1.215374</v>
       </c>
       <c r="G25" s="3">
-        <v>-0.59804000000000002</v>
+        <v>-1.07518</v>
       </c>
       <c r="H25" s="3">
-        <v>256.6386</v>
+        <v>2115.6970000000001</v>
       </c>
       <c r="I25" s="3">
-        <v>272.46809999999999</v>
+        <v>2915.2069999999999</v>
       </c>
       <c r="J25" s="3">
-        <v>0.99845300000000003</v>
+        <v>1.001978</v>
       </c>
       <c r="K25" s="3">
-        <v>0.41236</v>
+        <v>-0.32045000000000001</v>
       </c>
       <c r="L25" s="3">
-        <v>-0.57574999999999998</v>
+        <v>-1.17754</v>
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>-6.7471000000000003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.14449000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
         <v>12</v>
       </c>
@@ -1411,38 +1522,38 @@
         <v>1.5</v>
       </c>
       <c r="D26" s="3">
-        <v>-0.13858000000000001</v>
+        <v>-2.16656</v>
       </c>
       <c r="E26" s="3">
-        <v>4.0321999999999997E-2</v>
+        <v>-0.42551</v>
       </c>
       <c r="F26" s="3">
-        <v>1.761541</v>
+        <v>0.74472000000000005</v>
       </c>
       <c r="G26" s="3">
-        <v>-0.41499999999999998</v>
+        <v>-0.71059000000000005</v>
       </c>
       <c r="H26" s="3">
-        <v>212.8288</v>
+        <v>2782.248</v>
       </c>
       <c r="I26" s="3">
-        <v>221.30959999999999</v>
+        <v>2797.5680000000002</v>
       </c>
       <c r="J26" s="3">
-        <v>0.935554</v>
+        <v>0.66784299999999996</v>
       </c>
       <c r="K26" s="3">
-        <v>0.19628599999999999</v>
+        <v>-0.69255999999999995</v>
       </c>
       <c r="L26" s="3">
-        <v>-0.42834</v>
+        <v>-0.76032999999999995</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>-4.0321999999999997E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.42551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2">
         <v>12.5</v>
       </c>
@@ -1453,38 +1564,38 @@
         <v>0.75</v>
       </c>
       <c r="D27" s="3">
-        <v>-0.14043</v>
+        <v>-2.0000800000000001</v>
       </c>
       <c r="E27" s="3">
-        <v>2.6290000000000001E-2</v>
+        <v>-0.5403</v>
       </c>
       <c r="F27" s="3">
-        <v>1.6583000000000001</v>
+        <v>0.44525900000000002</v>
       </c>
       <c r="G27" s="3">
-        <v>-0.20810999999999999</v>
+        <v>-0.41033999999999998</v>
       </c>
       <c r="H27" s="3">
-        <v>227.4323</v>
+        <v>2395.7069999999999</v>
       </c>
       <c r="I27" s="3">
-        <v>255.8306</v>
+        <v>2022.925</v>
       </c>
       <c r="J27" s="3">
-        <v>0.898559</v>
+        <v>0.46022200000000002</v>
       </c>
       <c r="K27" s="3">
-        <v>9.3299999999999994E-2</v>
+        <v>-0.91707000000000005</v>
       </c>
       <c r="L27" s="3">
-        <v>-0.19919000000000001</v>
+        <v>-0.42222999999999999</v>
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>-2.6290000000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>0.5403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
         <v>13</v>
       </c>
@@ -1495,38 +1606,38 @@
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>-0.14043</v>
+        <v>-1.93058</v>
       </c>
       <c r="E28" s="3">
-        <v>2.6270000000000002E-2</v>
+        <v>-0.56816</v>
       </c>
       <c r="F28" s="3">
-        <v>1.6580919999999999</v>
-      </c>
-      <c r="G28" s="4">
-        <v>2.25E-10</v>
+        <v>0.29084700000000002</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-0.14721999999999999</v>
       </c>
       <c r="H28" s="3">
-        <v>198.82749999999999</v>
+        <v>2174.627</v>
       </c>
       <c r="I28" s="3">
-        <v>249.20699999999999</v>
+        <v>2090.9119999999998</v>
       </c>
       <c r="J28" s="3">
-        <v>0.95787199999999995</v>
+        <v>0.28237200000000001</v>
       </c>
       <c r="K28" s="3">
-        <v>8.6309999999999998E-2</v>
-      </c>
-      <c r="L28" s="4">
-        <v>2.26E-10</v>
+        <v>-0.95323000000000002</v>
+      </c>
+      <c r="L28" s="3">
+        <v>-0.14818000000000001</v>
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
-        <v>-2.6270000000000002E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.56816</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2">
         <v>13.5</v>
       </c>
@@ -1537,38 +1648,38 @@
         <v>0.375</v>
       </c>
       <c r="D29" s="3">
-        <v>-0.14035</v>
+        <v>-1.8692599999999999</v>
       </c>
       <c r="E29" s="3">
-        <v>1.4437999999999999E-2</v>
+        <v>-0.58374000000000004</v>
       </c>
       <c r="F29" s="3">
-        <v>1.5045230000000001</v>
+        <v>0.209345</v>
       </c>
       <c r="G29" s="3">
-        <v>-0.31093999999999999</v>
+        <v>-0.26011000000000001</v>
       </c>
       <c r="H29" s="3">
-        <v>195.16980000000001</v>
+        <v>2163.08</v>
       </c>
       <c r="I29" s="3">
-        <v>226.7439</v>
+        <v>2090.4209999999998</v>
       </c>
       <c r="J29" s="3">
-        <v>0.94194500000000003</v>
+        <v>0.20388700000000001</v>
       </c>
       <c r="K29" s="3">
-        <v>-6.336E-2</v>
+        <v>-0.96455000000000002</v>
       </c>
       <c r="L29" s="3">
-        <v>-0.30581000000000003</v>
+        <v>-0.23932</v>
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>-1.4437999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.58374000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
         <v>14</v>
       </c>
@@ -1579,38 +1690,38 @@
         <v>0.75</v>
       </c>
       <c r="D30" s="3">
-        <v>-0.1348</v>
+        <v>-1.74674</v>
       </c>
       <c r="E30" s="3">
-        <v>-8.5400000000000007E-3</v>
+        <v>-0.60121999999999998</v>
       </c>
       <c r="F30" s="3">
-        <v>1.1968399999999999</v>
+        <v>6.9865999999999998E-2</v>
       </c>
       <c r="G30" s="3">
-        <v>-0.61983999999999995</v>
+        <v>-0.37174000000000001</v>
       </c>
       <c r="H30" s="3">
-        <v>202.55779999999999</v>
+        <v>2139.462</v>
       </c>
       <c r="I30" s="3">
-        <v>247.37809999999999</v>
+        <v>1873.0409999999999</v>
       </c>
       <c r="J30" s="3">
-        <v>0.92937999999999998</v>
+        <v>7.2525999999999993E-2</v>
       </c>
       <c r="K30" s="3">
-        <v>-0.34139000000000003</v>
+        <v>-0.96348999999999996</v>
       </c>
       <c r="L30" s="3">
-        <v>-0.64661000000000002</v>
+        <v>-0.35926999999999998</v>
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>8.5400000000000007E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.60121999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2">
         <v>14.5</v>
       </c>
@@ -1621,38 +1732,38 @@
         <v>1.125</v>
       </c>
       <c r="D31" s="3">
-        <v>-0.11434</v>
+        <v>-1.56159</v>
       </c>
       <c r="E31" s="3">
-        <v>-3.7179999999999998E-2</v>
+        <v>-0.59674000000000005</v>
       </c>
       <c r="F31" s="3">
-        <v>0.73650099999999996</v>
+        <v>-0.12523000000000001</v>
       </c>
       <c r="G31" s="3">
-        <v>-0.93647999999999998</v>
+        <v>-0.48215999999999998</v>
       </c>
       <c r="H31" s="3">
-        <v>261.60919999999999</v>
+        <v>2318.0419999999999</v>
       </c>
       <c r="I31" s="3">
-        <v>288.92320000000001</v>
+        <v>2171.5619999999999</v>
       </c>
       <c r="J31" s="3">
-        <v>0.68820099999999995</v>
+        <v>-0.13317000000000001</v>
       </c>
       <c r="K31" s="3">
-        <v>-0.76781999999999995</v>
+        <v>-1.0305299999999999</v>
       </c>
       <c r="L31" s="3">
-        <v>-0.97409999999999997</v>
+        <v>-0.47766999999999998</v>
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>3.7179999999999998E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.59674000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2">
         <v>15</v>
       </c>
@@ -1663,38 +1774,38 @@
         <v>1.125</v>
       </c>
       <c r="D32" s="3">
-        <v>-8.3260000000000001E-2</v>
+        <v>-1.3507899999999999</v>
       </c>
       <c r="E32" s="3">
-        <v>-5.3740000000000003E-2</v>
+        <v>-0.53915000000000002</v>
       </c>
       <c r="F32" s="3">
-        <v>0.272901</v>
+        <v>-0.42255999999999999</v>
       </c>
       <c r="G32" s="3">
-        <v>-0.93281000000000003</v>
+        <v>-0.69306999999999996</v>
       </c>
       <c r="H32" s="3">
-        <v>224.82929999999999</v>
+        <v>2641.5160000000001</v>
       </c>
       <c r="I32" s="3">
-        <v>219.45500000000001</v>
+        <v>2404.3150000000001</v>
       </c>
       <c r="J32" s="3">
-        <v>0.284055</v>
+        <v>-0.42821999999999999</v>
       </c>
       <c r="K32" s="3">
-        <v>-0.94508000000000003</v>
+        <v>-0.97343000000000002</v>
       </c>
       <c r="L32" s="3">
-        <v>-0.95616000000000001</v>
+        <v>-0.70699000000000001</v>
       </c>
       <c r="M32">
         <f t="shared" si="0"/>
-        <v>5.3740000000000003E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.53915000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
         <v>15.5</v>
       </c>
@@ -1705,38 +1816,38 @@
         <v>1.125</v>
       </c>
       <c r="D33" s="3">
-        <v>-4.8129999999999999E-2</v>
+        <v>-1.15415</v>
       </c>
       <c r="E33" s="3">
-        <v>-5.457E-2</v>
+        <v>-0.40205999999999997</v>
       </c>
       <c r="F33" s="3">
-        <v>-0.18740999999999999</v>
+        <v>-0.80852000000000002</v>
       </c>
       <c r="G33" s="3">
-        <v>-0.89146999999999998</v>
+        <v>-0.84706000000000004</v>
       </c>
       <c r="H33" s="3">
-        <v>216.6764</v>
+        <v>2993.585</v>
       </c>
       <c r="I33" s="3">
-        <v>221.18530000000001</v>
+        <v>1907.62</v>
       </c>
       <c r="J33" s="3">
-        <v>-0.17693</v>
+        <v>-0.75466</v>
       </c>
       <c r="K33" s="3">
-        <v>-1.0506599999999999</v>
+        <v>-0.70867000000000002</v>
       </c>
       <c r="L33" s="3">
-        <v>-0.94294999999999995</v>
+        <v>-0.86992000000000003</v>
       </c>
       <c r="M33">
         <f t="shared" si="0"/>
-        <v>5.457E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.40205999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
         <v>16</v>
       </c>
@@ -1747,38 +1858,38 @@
         <v>1.125</v>
       </c>
       <c r="D34" s="3">
-        <v>-1.6199999999999999E-2</v>
+        <v>-1.02176</v>
       </c>
       <c r="E34" s="3">
-        <v>-3.9669999999999997E-2</v>
+        <v>-0.18149000000000001</v>
       </c>
       <c r="F34" s="3">
-        <v>-0.64712999999999998</v>
+        <v>-1.2701499999999999</v>
       </c>
       <c r="G34" s="3">
-        <v>-0.93584000000000001</v>
+        <v>-1.0212300000000001</v>
       </c>
       <c r="H34" s="3">
-        <v>263.81470000000002</v>
+        <v>2272.192</v>
       </c>
       <c r="I34" s="3">
-        <v>234.69980000000001</v>
+        <v>1532.7819999999999</v>
       </c>
       <c r="J34" s="3">
-        <v>-0.65693999999999997</v>
+        <v>-0.94172</v>
       </c>
       <c r="K34" s="3">
-        <v>-0.87055000000000005</v>
+        <v>-0.30367</v>
       </c>
       <c r="L34" s="3">
-        <v>-0.98051999999999995</v>
+        <v>-0.95994000000000002</v>
       </c>
       <c r="M34">
         <f t="shared" si="0"/>
-        <v>3.9669999999999997E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.18149000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
         <v>16.5</v>
       </c>
@@ -1789,38 +1900,38 @@
         <v>1.125</v>
       </c>
       <c r="D35" s="3">
-        <v>5.8820000000000001E-3</v>
+        <v>-1.0152300000000001</v>
       </c>
       <c r="E35" s="3">
-        <v>-1.2200000000000001E-2</v>
+        <v>0.102185</v>
       </c>
       <c r="F35" s="3">
-        <v>-1.1119699999999999</v>
+        <v>4.4367970000000003</v>
       </c>
       <c r="G35" s="3">
-        <v>-0.93291999999999997</v>
+        <v>-1.31294</v>
       </c>
       <c r="H35" s="3">
-        <v>224.9725</v>
+        <v>1976.0219999999999</v>
       </c>
       <c r="I35" s="3">
-        <v>201.69900000000001</v>
+        <v>1502.752</v>
       </c>
       <c r="J35" s="3">
-        <v>-0.87797000000000003</v>
+        <v>-1.03704</v>
       </c>
       <c r="K35" s="3">
-        <v>-0.43581999999999999</v>
+        <v>0.28561500000000001</v>
       </c>
       <c r="L35" s="3">
-        <v>-0.92442999999999997</v>
+        <v>-1.1814499999999999</v>
       </c>
       <c r="M35">
         <f t="shared" si="0"/>
-        <v>1.2200000000000001E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.102185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
         <v>17</v>
       </c>
@@ -1831,38 +1942,38 @@
         <v>1.125</v>
       </c>
       <c r="D36" s="3">
-        <v>1.3235E-2</v>
+        <v>-1.20431</v>
       </c>
       <c r="E36" s="3">
-        <v>2.2179999999999998E-2</v>
+        <v>0.363591</v>
       </c>
       <c r="F36" s="3">
-        <v>4.7091770000000004</v>
+        <v>3.7064240000000002</v>
       </c>
       <c r="G36" s="3">
-        <v>-0.93203000000000003</v>
+        <v>-1.56941</v>
       </c>
       <c r="H36" s="3">
-        <v>177.23779999999999</v>
+        <v>1641.6949999999999</v>
       </c>
       <c r="I36" s="3">
-        <v>186.8133</v>
+        <v>2436.1350000000002</v>
       </c>
       <c r="J36" s="3">
-        <v>-1.0056</v>
+        <v>-0.51282000000000005</v>
       </c>
       <c r="K36" s="3">
-        <v>3.411E-3</v>
+        <v>0.89233799999999996</v>
       </c>
       <c r="L36" s="3">
-        <v>-0.97872999999999999</v>
+        <v>-1.4078900000000001</v>
       </c>
       <c r="M36">
         <f t="shared" si="0"/>
-        <v>-2.2179999999999998E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.363591</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
         <v>17.5</v>
       </c>
@@ -1873,38 +1984,38 @@
         <v>1.125</v>
       </c>
       <c r="D37" s="3">
-        <v>4.4270000000000004E-3</v>
+        <v>-1.5381100000000001</v>
       </c>
       <c r="E37" s="3">
-        <v>5.6246999999999998E-2</v>
+        <v>0.42437799999999998</v>
       </c>
       <c r="F37" s="3">
-        <v>4.2501340000000001</v>
+        <v>2.9116080000000002</v>
       </c>
       <c r="G37" s="3">
-        <v>-0.93066000000000004</v>
+        <v>-1.59436</v>
       </c>
       <c r="H37" s="3">
-        <v>200.2877</v>
+        <v>1397.098</v>
       </c>
       <c r="I37" s="3">
-        <v>206.0898</v>
+        <v>2414.0079999999998</v>
       </c>
       <c r="J37" s="3">
-        <v>-0.83233000000000001</v>
+        <v>0.22239300000000001</v>
       </c>
       <c r="K37" s="3">
-        <v>0.46207900000000002</v>
+        <v>0.95269400000000004</v>
       </c>
       <c r="L37" s="3">
-        <v>-1.0013099999999999</v>
+        <v>-1.57216</v>
       </c>
       <c r="M37">
         <f t="shared" si="0"/>
-        <v>-5.6246999999999998E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.42437799999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
         <v>18</v>
       </c>
@@ -1915,38 +2026,38 @@
         <v>1.125</v>
       </c>
       <c r="D38" s="3">
-        <v>-1.8530000000000001E-2</v>
+        <v>-1.81839</v>
       </c>
       <c r="E38" s="3">
-        <v>8.3018999999999996E-2</v>
+        <v>0.224551</v>
       </c>
       <c r="F38" s="3">
-        <v>3.7861410000000002</v>
+        <v>2.1106919999999998</v>
       </c>
       <c r="G38" s="3">
-        <v>-0.93686000000000003</v>
+        <v>-1.6005</v>
       </c>
       <c r="H38" s="3">
-        <v>237.4315</v>
+        <v>2626.6469999999999</v>
       </c>
       <c r="I38" s="3">
-        <v>283.13830000000002</v>
+        <v>2989.91</v>
       </c>
       <c r="J38" s="3">
-        <v>-0.61616000000000004</v>
+        <v>0.95939799999999997</v>
       </c>
       <c r="K38" s="3">
-        <v>0.79985899999999999</v>
+        <v>0.49839299999999997</v>
       </c>
       <c r="L38" s="3">
-        <v>-0.91708000000000001</v>
+        <v>-1.6352500000000001</v>
       </c>
       <c r="M38">
         <f t="shared" si="0"/>
-        <v>-8.3018999999999996E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>-0.224551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2">
         <v>18.5</v>
       </c>
@@ -1957,38 +2068,38 @@
         <v>0.75</v>
       </c>
       <c r="D39" s="3">
-        <v>-3.9609999999999999E-2</v>
+        <v>-1.8733</v>
       </c>
       <c r="E39" s="3">
-        <v>9.3843999999999997E-2</v>
+        <v>-5.2299999999999999E-2</v>
       </c>
       <c r="F39" s="3">
-        <v>3.474567</v>
+        <v>1.4082680000000001</v>
       </c>
       <c r="G39" s="3">
-        <v>-0.62336999999999998</v>
+        <v>-1.0865800000000001</v>
       </c>
       <c r="H39" s="3">
-        <v>198.14680000000001</v>
+        <v>1894.086</v>
       </c>
       <c r="I39" s="3">
-        <v>237.2355</v>
+        <v>2794.29</v>
       </c>
       <c r="J39" s="3">
-        <v>-0.32516</v>
+        <v>1.002122</v>
       </c>
       <c r="K39" s="3">
-        <v>0.93964400000000003</v>
+        <v>-0.15941</v>
       </c>
       <c r="L39" s="3">
-        <v>-0.64639000000000002</v>
+        <v>-1.1996899999999999</v>
       </c>
       <c r="M39">
         <f t="shared" si="0"/>
-        <v>-9.3843999999999997E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>5.2299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2">
         <v>19</v>
       </c>
@@ -1999,38 +2110,38 @@
         <v>0.375</v>
       </c>
       <c r="D40" s="3">
-        <v>-5.1150000000000001E-2</v>
+        <v>-1.8093999999999999</v>
       </c>
       <c r="E40" s="3">
-        <v>9.6661999999999998E-2</v>
+        <v>-0.21546999999999999</v>
       </c>
       <c r="F40" s="3">
-        <v>3.3193009999999998</v>
+        <v>0.97398799999999996</v>
       </c>
       <c r="G40" s="3">
-        <v>-0.31084000000000001</v>
+        <v>-0.60853000000000002</v>
       </c>
       <c r="H40" s="3">
-        <v>178.7313</v>
+        <v>2430.788</v>
       </c>
       <c r="I40" s="3">
-        <v>201.256</v>
+        <v>3404.2130000000002</v>
       </c>
       <c r="J40" s="3">
-        <v>-0.1704</v>
+        <v>0.80956600000000001</v>
       </c>
       <c r="K40" s="3">
-        <v>0.96628099999999995</v>
+        <v>-0.55418000000000001</v>
       </c>
       <c r="L40" s="3">
-        <v>-0.33671000000000001</v>
+        <v>-0.55803999999999998</v>
       </c>
       <c r="M40">
         <f t="shared" si="0"/>
-        <v>-9.6661999999999998E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.21546999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2">
         <v>19.5</v>
       </c>
@@ -2041,38 +2152,38 @@
         <v>0.1875</v>
       </c>
       <c r="D41" s="3">
-        <v>-5.7049999999999997E-2</v>
+        <v>-1.75407</v>
       </c>
       <c r="E41" s="3">
-        <v>9.7381999999999996E-2</v>
+        <v>-0.28061999999999998</v>
       </c>
       <c r="F41" s="3">
-        <v>3.2416589999999998</v>
+        <v>0.767073</v>
       </c>
       <c r="G41" s="3">
-        <v>-0.15604999999999999</v>
+        <v>-0.26515</v>
       </c>
       <c r="H41" s="3">
-        <v>174.4708</v>
+        <v>2645.558</v>
       </c>
       <c r="I41" s="3">
-        <v>221.8407</v>
+        <v>2770.1210000000001</v>
       </c>
       <c r="J41" s="3">
-        <v>-0.10532</v>
+        <v>0.629996</v>
       </c>
       <c r="K41" s="3">
-        <v>1.0497920000000001</v>
+        <v>-0.71087999999999996</v>
       </c>
       <c r="L41" s="3">
-        <v>-0.16625000000000001</v>
+        <v>-0.27815000000000001</v>
       </c>
       <c r="M41">
         <f t="shared" si="0"/>
-        <v>-9.7381999999999996E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.28061999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2">
         <v>20</v>
       </c>
@@ -2083,35 +2194,35 @@
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <v>-5.706E-2</v>
+        <v>-1.7402299999999999</v>
       </c>
       <c r="E42" s="3">
-        <v>9.7381999999999996E-2</v>
+        <v>-0.29322999999999999</v>
       </c>
       <c r="F42" s="3">
-        <v>3.2416450000000001</v>
+        <v>0.71668399999999999</v>
       </c>
       <c r="G42" s="4">
-        <v>4.2299999999999999E-10</v>
+        <v>-1.5999999999999999E-6</v>
       </c>
       <c r="H42" s="3">
-        <v>180.58529999999999</v>
+        <v>1805.019</v>
       </c>
       <c r="I42" s="3">
-        <v>235.68889999999999</v>
+        <v>2770.3220000000001</v>
       </c>
       <c r="J42" s="4">
-        <v>-9.7390000000000004E-2</v>
+        <v>0.64</v>
       </c>
       <c r="K42" s="3">
-        <v>1.0350999999999999</v>
+        <v>-0.74333000000000005</v>
       </c>
       <c r="L42" s="4">
-        <v>3.73E-10</v>
+        <v>3.9299999999999996E-6</v>
       </c>
       <c r="M42">
         <f t="shared" si="0"/>
-        <v>-9.7381999999999996E-2</v>
+        <v>0.29322999999999999</v>
       </c>
     </row>
   </sheetData>
